--- a/teaching/traditional_assets/database/data/jordan/jordan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_bank_money_center.xlsx
@@ -591,10 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0265</v>
+        <v>-0.0208</v>
       </c>
       <c r="E2">
-        <v>-0.02055</v>
+        <v>-0.09449999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.033</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0009327904009342906</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0006550287256521065</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1369.99</v>
+        <v>728.926</v>
       </c>
       <c r="L2">
-        <v>0.3793304906412671</v>
+        <v>0.2256247871978209</v>
       </c>
       <c r="M2">
-        <v>750.5</v>
+        <v>91.3</v>
       </c>
       <c r="N2">
-        <v>0.0665159975183905</v>
+        <v>0.01067836257309942</v>
       </c>
       <c r="O2">
-        <v>0.5478142176220264</v>
+        <v>0.1252527691425467</v>
       </c>
       <c r="P2">
-        <v>750.5</v>
+        <v>91.3</v>
       </c>
       <c r="Q2">
-        <v>0.0665159975183905</v>
+        <v>0.01067836257309942</v>
       </c>
       <c r="R2">
-        <v>0.5478142176220264</v>
+        <v>0.1252527691425467</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>14921.4</v>
+        <v>19153.8</v>
       </c>
       <c r="V2">
-        <v>1.322467428875299</v>
+        <v>2.240210526315789</v>
       </c>
       <c r="W2">
-        <v>0.08173387966357559</v>
+        <v>0.04977694294435313</v>
       </c>
       <c r="X2">
-        <v>0.07515891798297794</v>
+        <v>0.07647271956329138</v>
       </c>
       <c r="Y2">
-        <v>0.006574961680597652</v>
+        <v>-0.02669577661893825</v>
       </c>
       <c r="Z2">
-        <v>5.253585361718481</v>
+        <v>1.301756789427029</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06870809742604424</v>
+        <v>0.06462538099001941</v>
       </c>
       <c r="AC2">
-        <v>-0.06870809742604424</v>
+        <v>-0.06462538099001941</v>
       </c>
       <c r="AD2">
-        <v>2531.5</v>
+        <v>3948.3</v>
       </c>
       <c r="AE2">
-        <v>68.89432906007141</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2600.394329060071</v>
+        <v>3948.3</v>
       </c>
       <c r="AG2">
-        <v>-12321.00567093993</v>
+        <v>-15205.5</v>
       </c>
       <c r="AH2">
-        <v>0.1873024901134622</v>
+        <v>0.3159069633470152</v>
       </c>
       <c r="AI2">
-        <v>0.1457833067480937</v>
+        <v>0.1974880705861168</v>
       </c>
       <c r="AJ2">
-        <v>11.86988281073945</v>
+        <v>2.284651791751183</v>
       </c>
       <c r="AK2">
-        <v>-4.225318804001731</v>
+        <v>-18.12768240343345</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>243.1796349663785</v>
-      </c>
-      <c r="AP2">
-        <v>-1183.574031790579</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank of Jordan (ASE:BOJX)</t>
+          <t>Jordan Islamic Bank (ASE:JOIB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0265</v>
+        <v>0.0601</v>
       </c>
       <c r="E3">
-        <v>-0.0198</v>
+        <v>0.0333</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +728,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007579042124832127</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005231631718821696</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>78.3</v>
       </c>
       <c r="L3">
-        <v>0.31715388858246</v>
+        <v>0.3220896750308515</v>
       </c>
       <c r="M3">
-        <v>50.7</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.085555180560243</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.8817391304347827</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>50.7</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.085555180560243</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8817391304347827</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>387.4</v>
+        <v>1074.6</v>
       </c>
       <c r="V3">
-        <v>0.6537293283833951</v>
+        <v>1.236878453038674</v>
       </c>
       <c r="W3">
-        <v>0.1015901060070671</v>
+        <v>0.136411149825784</v>
       </c>
       <c r="X3">
-        <v>0.06050460077516027</v>
+        <v>0.05347736275538753</v>
       </c>
       <c r="Y3">
-        <v>0.04108550523190686</v>
+        <v>0.08293378707039645</v>
       </c>
       <c r="Z3">
-        <v>4.461166141454186</v>
+        <v>-0.910828025477707</v>
       </c>
       <c r="AA3">
-        <v>0.02333917828856511</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06050509939157284</v>
+        <v>0.05381434764302559</v>
       </c>
       <c r="AC3">
-        <v>-0.03716592110300773</v>
+        <v>-0.05381434764302559</v>
       </c>
       <c r="AD3">
-        <v>30.7</v>
+        <v>16.4</v>
       </c>
       <c r="AE3">
-        <v>18.47959831383968</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>49.17959831383968</v>
+        <v>16.4</v>
       </c>
       <c r="AG3">
-        <v>-338.2204016861603</v>
+        <v>-1058.2</v>
       </c>
       <c r="AH3">
-        <v>0.0766300431535222</v>
+        <v>0.01852688657930411</v>
       </c>
       <c r="AI3">
-        <v>0.07861445361453004</v>
+        <v>0.02450687387925882</v>
       </c>
       <c r="AJ3">
-        <v>-1.329589337855948</v>
+        <v>5.587117212249211</v>
       </c>
       <c r="AK3">
-        <v>-1.420022554746695</v>
+        <v>2.610261470152936</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>6.055226824457593</v>
-      </c>
-      <c r="AP3">
-        <v>-66.71013839963713</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arab Bank Group (ASE:ARBK)</t>
+          <t>Bank of Jordan (ASE:BOJX)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0164</v>
+        <v>-0.0208</v>
       </c>
       <c r="E4">
-        <v>0.08890000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.001212055514376361</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.0008790207201450778</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>849.8</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>0.4904201292705448</v>
+        <v>0.18</v>
       </c>
       <c r="M4">
-        <v>415.4</v>
+        <v>50.8</v>
       </c>
       <c r="N4">
-        <v>0.07990920283164051</v>
+        <v>0.09331373989713446</v>
       </c>
       <c r="O4">
-        <v>0.4888208990350671</v>
+        <v>1.881481481481481</v>
       </c>
       <c r="P4">
-        <v>415.4</v>
+        <v>50.8</v>
       </c>
       <c r="Q4">
-        <v>0.07990920283164051</v>
+        <v>0.09331373989713446</v>
       </c>
       <c r="R4">
-        <v>0.4888208990350671</v>
+        <v>1.881481481481481</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>8413.6</v>
+        <v>573.6</v>
       </c>
       <c r="V4">
-        <v>1.618497999384426</v>
+        <v>1.053637031594416</v>
       </c>
       <c r="W4">
-        <v>0.1031298163857235</v>
+        <v>0.04751011789547775</v>
       </c>
       <c r="X4">
-        <v>0.06223404788019565</v>
+        <v>0.0587038467179631</v>
       </c>
       <c r="Y4">
-        <v>0.04089576850552781</v>
+        <v>-0.01119372882248535</v>
       </c>
       <c r="Z4">
-        <v>-5.949553410653191</v>
+        <v>0.7088846880907371</v>
       </c>
       <c r="AA4">
-        <v>0.005229780723573972</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06106847214648846</v>
+        <v>0.05703883766079407</v>
       </c>
       <c r="AC4">
-        <v>-0.05583869142291448</v>
+        <v>-0.05703883766079407</v>
       </c>
       <c r="AD4">
-        <v>691.7</v>
+        <v>92</v>
       </c>
       <c r="AE4">
-        <v>29.8512489765568</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>721.5512489765568</v>
+        <v>92</v>
       </c>
       <c r="AG4">
-        <v>-7692.048751023443</v>
+        <v>-481.6</v>
       </c>
       <c r="AH4">
-        <v>0.121884660638261</v>
+        <v>0.1445631678189818</v>
       </c>
       <c r="AI4">
-        <v>0.0751447493657698</v>
+        <v>0.1309794988610478</v>
       </c>
       <c r="AJ4">
-        <v>3.084656067887056</v>
+        <v>-7.668789808917204</v>
       </c>
       <c r="AK4">
-        <v>-6.471785510003836</v>
+        <v>-3.73913043478261</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>178.733850129199</v>
-      </c>
-      <c r="AP4">
-        <v>-1987.609496388487</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jordan Islamic Bank (ASE:JOIB)</t>
+          <t>Arab Bank Group (ASE:ARBK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +957,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.07389999999999999</v>
+        <v>-0.0467</v>
       </c>
       <c r="E5">
-        <v>0.0496</v>
+        <v>-0.0737</v>
+      </c>
+      <c r="F5">
+        <v>0.033</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,28 +978,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>75.3</v>
+        <v>387.5</v>
       </c>
       <c r="L5">
-        <v>0.3314260563380282</v>
+        <v>0.2607847096036072</v>
       </c>
       <c r="M5">
-        <v>38.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5">
-        <v>0.04822174408302746</v>
+        <v>0.0002712355990009937</v>
       </c>
       <c r="O5">
-        <v>0.5059760956175299</v>
+        <v>0.002606451612903226</v>
       </c>
       <c r="P5">
-        <v>38.1</v>
+        <v>1.01</v>
       </c>
       <c r="Q5">
-        <v>0.04822174408302746</v>
+        <v>0.0002712355990009937</v>
       </c>
       <c r="R5">
-        <v>0.5059760956175299</v>
+        <v>0.002606451612903226</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1023,55 +1008,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>857.4</v>
+        <v>12206.5</v>
       </c>
       <c r="V5">
-        <v>1.085179091254272</v>
+        <v>3.278056771490722</v>
       </c>
       <c r="W5">
-        <v>0.1405899925317401</v>
+        <v>0.04407014830315713</v>
       </c>
       <c r="X5">
-        <v>0.05858015373742149</v>
+        <v>0.06113592934786642</v>
       </c>
       <c r="Y5">
-        <v>0.0820098387943186</v>
+        <v>-0.01706578104470929</v>
       </c>
       <c r="Z5">
-        <v>-0.5754812563323202</v>
+        <v>1.387524512092633</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0588864031030711</v>
+        <v>0.05844646329593956</v>
       </c>
       <c r="AC5">
-        <v>-0.0588864031030711</v>
+        <v>-0.05844646329593956</v>
       </c>
       <c r="AD5">
-        <v>16.5</v>
+        <v>889.4</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>16.5</v>
+        <v>889.4</v>
       </c>
       <c r="AG5">
-        <v>-840.9</v>
+        <v>-11317.1</v>
       </c>
       <c r="AH5">
-        <v>0.02045623605256633</v>
+        <v>0.1927987687238517</v>
       </c>
       <c r="AI5">
-        <v>0.02793296089385475</v>
+        <v>0.0869446209492155</v>
       </c>
       <c r="AJ5">
-        <v>16.55314960629923</v>
+        <v>1.490386388179208</v>
       </c>
       <c r="AK5">
-        <v>3.152980877390327</v>
+        <v>5.724380374304502</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1097,10 +1082,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.018</v>
+        <v>-0.0406</v>
       </c>
       <c r="E6">
-        <v>-0.06269999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,28 +1100,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>112.5</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>0.2885355219286997</v>
+        <v>0.1769436997319035</v>
       </c>
       <c r="M6">
-        <v>63.6</v>
+        <v>0.104</v>
       </c>
       <c r="N6">
-        <v>0.02611480660261148</v>
+        <v>7.802535824142845e-05</v>
       </c>
       <c r="O6">
-        <v>0.5653333333333334</v>
+        <v>0.001575757575757576</v>
       </c>
       <c r="P6">
-        <v>63.6</v>
+        <v>0.104</v>
       </c>
       <c r="Q6">
-        <v>0.02611480660261148</v>
+        <v>7.802535824142845e-05</v>
       </c>
       <c r="R6">
-        <v>0.5653333333333334</v>
+        <v>0.001575757575757576</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1145,55 +1130,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1772.4</v>
+        <v>1357.7</v>
       </c>
       <c r="V6">
-        <v>0.7277654594727766</v>
+        <v>1.018606046965264</v>
       </c>
       <c r="W6">
-        <v>0.07843547375026146</v>
+        <v>0.04450138223990291</v>
       </c>
       <c r="X6">
-        <v>0.06109861934936349</v>
+        <v>0.0645300086343643</v>
       </c>
       <c r="Y6">
-        <v>0.01733685440089797</v>
+        <v>-0.02002862639446139</v>
       </c>
       <c r="Z6">
-        <v>105.3783783783771</v>
+        <v>-9.209876543209825</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.06104416255431593</v>
+        <v>0.06016487713161226</v>
       </c>
       <c r="AC6">
-        <v>-0.06104416255431593</v>
+        <v>-0.06016487713161226</v>
       </c>
       <c r="AD6">
-        <v>248.8</v>
+        <v>448.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>248.8</v>
+        <v>448.3</v>
       </c>
       <c r="AG6">
-        <v>-1523.6</v>
+        <v>-909.4000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.09269055957082184</v>
+        <v>0.2516842578037278</v>
       </c>
       <c r="AI6">
-        <v>0.1374965460071843</v>
+        <v>0.2164968368184672</v>
       </c>
       <c r="AJ6">
-        <v>-1.670980478175039</v>
+        <v>-2.147343565525384</v>
       </c>
       <c r="AK6">
-        <v>-41.06738544474404</v>
+        <v>-1.275455820476858</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1219,10 +1204,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.166</v>
+        <v>0.139</v>
       </c>
       <c r="E7">
-        <v>0.0535</v>
+        <v>0.00483</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1237,28 +1222,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>46.7</v>
+        <v>37</v>
       </c>
       <c r="L7">
-        <v>0.2128532360984503</v>
+        <v>0.1812836844683978</v>
       </c>
       <c r="M7">
-        <v>37.5</v>
+        <v>0.041</v>
       </c>
       <c r="N7">
-        <v>0.1031920748486516</v>
+        <v>0.0001164772727272727</v>
       </c>
       <c r="O7">
-        <v>0.8029978586723768</v>
+        <v>0.001108108108108108</v>
       </c>
       <c r="P7">
-        <v>37.5</v>
+        <v>0.041</v>
       </c>
       <c r="Q7">
-        <v>0.1031920748486516</v>
+        <v>0.0001164772727272727</v>
       </c>
       <c r="R7">
-        <v>0.8029978586723768</v>
+        <v>0.001108108108108108</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1267,55 +1252,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>884.4</v>
+        <v>1231.7</v>
       </c>
       <c r="V7">
-        <v>2.4336818932306</v>
+        <v>3.499147727272728</v>
       </c>
       <c r="W7">
-        <v>0.09055652511149893</v>
+        <v>0.06965361445783132</v>
       </c>
       <c r="X7">
-        <v>0.06848924566307302</v>
+        <v>0.07087112463372974</v>
       </c>
       <c r="Y7">
-        <v>0.02206727944842592</v>
+        <v>-0.001217510175898426</v>
       </c>
       <c r="Z7">
-        <v>3.152298850574712</v>
+        <v>-0.8897122929380995</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.0644697762558349</v>
+        <v>0.06278417333563516</v>
       </c>
       <c r="AC7">
-        <v>-0.0644697762558349</v>
+        <v>-0.06278417333563516</v>
       </c>
       <c r="AD7">
-        <v>123.8</v>
+        <v>182.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>123.8</v>
+        <v>182.5</v>
       </c>
       <c r="AG7">
-        <v>-760.6</v>
+        <v>-1049.2</v>
       </c>
       <c r="AH7">
-        <v>0.2541050903119869</v>
+        <v>0.3414405986903648</v>
       </c>
       <c r="AI7">
-        <v>0.1582715418051649</v>
+        <v>0.2060051924596456</v>
       </c>
       <c r="AJ7">
-        <v>1.914904330312185</v>
+        <v>1.504876649454963</v>
       </c>
       <c r="AK7">
-        <v>7.442270058708412</v>
+        <v>3.034123770965876</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1341,10 +1326,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0536</v>
+        <v>-0.032</v>
       </c>
       <c r="E8">
-        <v>-0.0213</v>
+        <v>-0.09449999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1359,28 +1344,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.8</v>
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>0.2722513089005236</v>
+        <v>0.241423125794155</v>
       </c>
       <c r="M8">
-        <v>17.5</v>
+        <v>0.032</v>
       </c>
       <c r="N8">
-        <v>0.06313131313131314</v>
+        <v>0.0001270849880857824</v>
       </c>
       <c r="O8">
-        <v>0.8413461538461539</v>
+        <v>0.00168421052631579</v>
       </c>
       <c r="P8">
-        <v>17.5</v>
+        <v>0.032</v>
       </c>
       <c r="Q8">
-        <v>0.06313131313131314</v>
+        <v>0.0001270849880857824</v>
       </c>
       <c r="R8">
-        <v>0.8413461538461539</v>
+        <v>0.00168421052631579</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1389,55 +1374,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>397.6</v>
+        <v>334.5</v>
       </c>
       <c r="V8">
-        <v>1.434343434343434</v>
+        <v>1.328435266084194</v>
       </c>
       <c r="W8">
-        <v>0.07720861172976987</v>
+        <v>0.07175226586102719</v>
       </c>
       <c r="X8">
-        <v>0.07515891798297794</v>
+        <v>0.07603550923741557</v>
       </c>
       <c r="Y8">
-        <v>0.002049693746791925</v>
+        <v>-0.004283243376388385</v>
       </c>
       <c r="Z8">
-        <v>0.4044467972472207</v>
+        <v>3.694835680751182</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06712420529169896</v>
+        <v>0.06449446180762315</v>
       </c>
       <c r="AC8">
-        <v>-0.06712420529169896</v>
+        <v>-0.06449446180762315</v>
       </c>
       <c r="AD8">
-        <v>154.1</v>
+        <v>167.9</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>154.1</v>
+        <v>167.9</v>
       </c>
       <c r="AG8">
-        <v>-243.5</v>
+        <v>-166.6</v>
       </c>
       <c r="AH8">
-        <v>0.3572919081845584</v>
+        <v>0.4000476530855372</v>
       </c>
       <c r="AI8">
-        <v>0.3447427293064877</v>
+        <v>0.3489918935772189</v>
       </c>
       <c r="AJ8">
-        <v>-7.225519287833837</v>
+        <v>-1.955399061032863</v>
       </c>
       <c r="AK8">
-        <v>-4.929149797570856</v>
+        <v>-1.136425648021828</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1454,7 +1439,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Capital Bank of Jordan (ASE:EXFB)</t>
+          <t>Jordan Kuwait Bank (ASE:JOKB)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1463,10 +1448,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0123</v>
+        <v>-0.0307</v>
       </c>
       <c r="E9">
-        <v>0.0136</v>
+        <v>-0.304</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1481,28 +1466,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>54.8</v>
+        <v>7.71</v>
       </c>
       <c r="L9">
-        <v>0.4244771494965143</v>
+        <v>0.06908602150537635</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>0.797</v>
       </c>
       <c r="N9">
-        <v>0.1204819277108434</v>
+        <v>0.002615687561535937</v>
       </c>
       <c r="O9">
-        <v>0.6204379562043796</v>
+        <v>0.1033722438391699</v>
       </c>
       <c r="P9">
-        <v>34</v>
+        <v>0.797</v>
       </c>
       <c r="Q9">
-        <v>0.1204819277108434</v>
+        <v>0.002615687561535937</v>
       </c>
       <c r="R9">
-        <v>0.6204379562043796</v>
+        <v>0.1033722438391699</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1511,55 +1496,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>355.2</v>
+        <v>606.9</v>
       </c>
       <c r="V9">
-        <v>1.258681785967399</v>
+        <v>1.991795208401707</v>
       </c>
       <c r="W9">
-        <v>0.1444385872430153</v>
+        <v>0.01215513164117925</v>
       </c>
       <c r="X9">
-        <v>0.08026700506439642</v>
+        <v>0.07647271956329138</v>
       </c>
       <c r="Y9">
-        <v>0.06417158217861886</v>
+        <v>-0.06431758792211213</v>
       </c>
       <c r="Z9">
-        <v>1.562953995157385</v>
+        <v>0.5128676470588235</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06870809742604424</v>
+        <v>0.06462538099001941</v>
       </c>
       <c r="AC9">
-        <v>-0.06870809742604424</v>
+        <v>-0.06462538099001941</v>
       </c>
       <c r="AD9">
-        <v>203.4</v>
+        <v>207</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>203.4</v>
+        <v>207</v>
       </c>
       <c r="AG9">
-        <v>-151.8</v>
+        <v>-399.9</v>
       </c>
       <c r="AH9">
-        <v>0.4188632619439868</v>
+        <v>0.4045339065858902</v>
       </c>
       <c r="AI9">
-        <v>0.2973249524923257</v>
+        <v>0.2437588318417334</v>
       </c>
       <c r="AJ9">
-        <v>-1.164110429447853</v>
+        <v>4.200630252100841</v>
       </c>
       <c r="AK9">
-        <v>-0.4615384615384615</v>
+        <v>-1.650433347090383</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1576,7 +1561,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Invest Bank (ASE:INVB)</t>
+          <t>Arab Banking Corporation (Jordan) (ASE:ABCO)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1585,10 +1570,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.108</v>
+        <v>-0.0949</v>
       </c>
       <c r="E10">
-        <v>0.153</v>
+        <v>-0.622</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1597,34 +1582,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004445572550888043</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.003397899286395427</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.4</v>
+        <v>0.166</v>
       </c>
       <c r="L10">
-        <v>0.320916905444126</v>
+        <v>0.00436842105263158</v>
       </c>
       <c r="M10">
-        <v>15.5</v>
+        <v>0.062</v>
       </c>
       <c r="N10">
-        <v>0.08516483516483517</v>
+        <v>0.0005788982259570495</v>
       </c>
       <c r="O10">
-        <v>0.6919642857142858</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="P10">
-        <v>15.5</v>
+        <v>0.062</v>
       </c>
       <c r="Q10">
-        <v>0.08516483516483517</v>
+        <v>0.0005788982259570495</v>
       </c>
       <c r="R10">
-        <v>0.6919642857142858</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1633,67 +1618,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>145.9</v>
+        <v>152.9</v>
       </c>
       <c r="V10">
-        <v>0.8016483516483517</v>
+        <v>1.427637721755369</v>
       </c>
       <c r="W10">
-        <v>0.09427609427609428</v>
+        <v>0.0007467386414754836</v>
       </c>
       <c r="X10">
-        <v>0.08951512778409854</v>
+        <v>0.09849396303609387</v>
       </c>
       <c r="Y10">
-        <v>0.004760966491995741</v>
+        <v>-0.09774722439461839</v>
       </c>
       <c r="Z10">
-        <v>0.2264774198825758</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="AA10">
-        <v>0.0007695474634036817</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07091774468006261</v>
+        <v>0.06937957375255097</v>
       </c>
       <c r="AC10">
-        <v>-0.07014819721665892</v>
+        <v>-0.06937957375255097</v>
       </c>
       <c r="AD10">
-        <v>180.4</v>
+        <v>140.5</v>
       </c>
       <c r="AE10">
-        <v>5.098495179740073</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>185.4984951797401</v>
+        <v>140.5</v>
       </c>
       <c r="AG10">
-        <v>39.59849517974007</v>
+        <v>-12.40000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.5047598768779026</v>
+        <v>0.5674474959612278</v>
       </c>
       <c r="AI10">
-        <v>0.4309924343538271</v>
+        <v>0.3837749248839115</v>
       </c>
       <c r="AJ10">
-        <v>0.1786947837692736</v>
+        <v>-0.1309398099260825</v>
       </c>
       <c r="AK10">
-        <v>0.1391870110058845</v>
+        <v>-0.0581613508442777</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>135.6390977443609</v>
-      </c>
-      <c r="AP10">
-        <v>29.7733046464211</v>
       </c>
     </row>
     <row r="11">
@@ -1704,7 +1683,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jordan Ahli Bank (ASE:AHLI)</t>
+          <t>Invest Bank (ASE:INVB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1713,10 +1692,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0396</v>
+        <v>0.0238</v>
       </c>
       <c r="E11">
-        <v>-0.09519999999999999</v>
+        <v>-0.045</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1731,28 +1710,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.4</v>
+        <v>16.7</v>
       </c>
       <c r="L11">
-        <v>0.1896774193548387</v>
+        <v>0.2593167701863354</v>
       </c>
       <c r="M11">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="N11">
-        <v>0.06061732986240239</v>
+        <v>0.09006391632771645</v>
       </c>
       <c r="O11">
-        <v>0.5544217687074831</v>
+        <v>0.9281437125748503</v>
       </c>
       <c r="P11">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="Q11">
-        <v>0.06061732986240239</v>
+        <v>0.09006391632771645</v>
       </c>
       <c r="R11">
-        <v>0.5544217687074831</v>
+        <v>0.9281437125748503</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1761,55 +1740,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>323.2</v>
+        <v>122.6</v>
       </c>
       <c r="V11">
-        <v>1.201933804388248</v>
+        <v>0.7123765252760023</v>
       </c>
       <c r="W11">
-        <v>0.07010014306151645</v>
+        <v>0.06880922950144211</v>
       </c>
       <c r="X11">
-        <v>0.08311169396638422</v>
+        <v>0.1028291316022371</v>
       </c>
       <c r="Y11">
-        <v>-0.01301155090486777</v>
+        <v>-0.034019902100795</v>
       </c>
       <c r="Z11">
-        <v>0.9149940968122785</v>
+        <v>0.2143094841930117</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.07297991693243633</v>
+        <v>0.07002469286353821</v>
       </c>
       <c r="AC11">
-        <v>-0.07297991693243633</v>
+        <v>-0.07002469286353821</v>
       </c>
       <c r="AD11">
-        <v>218.5</v>
+        <v>247.2</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>218.5</v>
+        <v>247.2</v>
       </c>
       <c r="AG11">
-        <v>-104.7</v>
+        <v>124.6</v>
       </c>
       <c r="AH11">
-        <v>0.448297086581863</v>
+        <v>0.5895540186024326</v>
       </c>
       <c r="AI11">
-        <v>0.3390751086281812</v>
+        <v>0.4867099822799764</v>
       </c>
       <c r="AJ11">
-        <v>-0.6376370280146163</v>
+        <v>0.4199528142905292</v>
       </c>
       <c r="AK11">
-        <v>-0.3259651307596513</v>
+        <v>0.3233843758110563</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1826,7 +1805,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arab Banking Corporation (Jordan) (ASE:ABCO)</t>
+          <t>Jordan Ahli Bank (ASE:AHLI)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1835,10 +1814,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.0342</v>
+        <v>-0.008149999999999999</v>
       </c>
       <c r="E12">
-        <v>-0.159</v>
+        <v>-0.0344</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1853,85 +1832,82 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.55</v>
+        <v>21.2</v>
       </c>
       <c r="L12">
-        <v>0.1599576271186441</v>
+        <v>0.1530685920577617</v>
       </c>
       <c r="M12">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.09076803723816912</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>1.549668874172185</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.09076803723816912</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>1.549668874172185</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>131.3</v>
+        <v>466.9</v>
       </c>
       <c r="V12">
-        <v>1.018619084561676</v>
+        <v>2.142726021110601</v>
       </c>
       <c r="W12">
-        <v>0.03403967538322813</v>
+        <v>0.04977694294435313</v>
       </c>
       <c r="X12">
-        <v>0.08533766032119904</v>
+        <v>0.1081041274360383</v>
       </c>
       <c r="Y12">
-        <v>-0.05129798493797091</v>
+        <v>-0.05832718449168519</v>
       </c>
       <c r="Z12">
-        <v>0.2429233144621719</v>
+        <v>0.4311955168119552</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.07368584058889213</v>
+        <v>0.07072594200854831</v>
       </c>
       <c r="AC12">
-        <v>-0.07368584058889213</v>
+        <v>-0.07072594200854831</v>
       </c>
       <c r="AD12">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="AG12">
-        <v>-17.30000000000001</v>
+        <v>-120.9</v>
       </c>
       <c r="AH12">
-        <v>0.4693289419514203</v>
+        <v>0.6135839687887924</v>
       </c>
       <c r="AI12">
-        <v>0.3389830508474576</v>
+        <v>0.4366481574962141</v>
       </c>
       <c r="AJ12">
-        <v>-0.1550179211469535</v>
+        <v>-1.246391752577319</v>
       </c>
       <c r="AK12">
-        <v>-0.08439024390243909</v>
+        <v>-0.3714285714285714</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1948,7 +1924,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cairo Amman Bank (ASE:CABK)</t>
+          <t>Jordan Commercial Bank (ASE:JCBK)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1957,10 +1933,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.00831</v>
+        <v>-0.0672</v>
       </c>
       <c r="E13">
-        <v>-0.0984</v>
+        <v>-0.284</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1975,85 +1951,82 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>37.9</v>
+        <v>5.05</v>
       </c>
       <c r="L13">
-        <v>0.2129213483146067</v>
+        <v>0.09386617100371747</v>
       </c>
       <c r="M13">
-        <v>22.9</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.08294096341905105</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.604221635883905</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>22.9</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.08294096341905105</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.604221635883905</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>434.5</v>
+        <v>203.1</v>
       </c>
       <c r="V13">
-        <v>1.573705179282868</v>
+        <v>1.738869863013699</v>
       </c>
       <c r="W13">
-        <v>0.08173387966357559</v>
+        <v>0.02655099894847529</v>
       </c>
       <c r="X13">
-        <v>0.08591175239236407</v>
+        <v>0.1105886833497079</v>
       </c>
       <c r="Y13">
-        <v>-0.004177872728788473</v>
+        <v>-0.0840376844012326</v>
       </c>
       <c r="Z13">
-        <v>1.094710947109471</v>
+        <v>0.4435284418796373</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.07385925762119262</v>
+        <v>0.07102855277952329</v>
       </c>
       <c r="AC13">
-        <v>-0.07385925762119262</v>
+        <v>-0.07102855277952329</v>
       </c>
       <c r="AD13">
-        <v>249.3</v>
+        <v>193.8</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>249.3</v>
+        <v>193.8</v>
       </c>
       <c r="AG13">
-        <v>-185.2</v>
+        <v>-9.299999999999983</v>
       </c>
       <c r="AH13">
-        <v>0.4744956223829463</v>
+        <v>0.6239536381197682</v>
       </c>
       <c r="AI13">
-        <v>0.3357123619714517</v>
+        <v>0.4987133299022131</v>
       </c>
       <c r="AJ13">
-        <v>-2.037403740374037</v>
+        <v>-0.08651162790697657</v>
       </c>
       <c r="AK13">
-        <v>-0.6011035378123984</v>
+        <v>-0.05013477088948777</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2070,7 +2043,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jordan Commercial Bank (ASE:JCBK)</t>
+          <t>Cairo Amman Bank (ASE:CABK)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2079,7 +2052,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0973</v>
+        <v>-0.0117</v>
+      </c>
+      <c r="E14">
+        <v>-0.126</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2094,82 +2070,85 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.64</v>
+        <v>31.5</v>
       </c>
       <c r="L14">
-        <v>0.1054205607476635</v>
+        <v>0.1823972206137811</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>22.8</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.08102345415778253</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>22.8</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.08102345415778253</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>242.6</v>
+        <v>406</v>
       </c>
       <c r="V14">
-        <v>1.81451009723261</v>
+        <v>1.442786069651741</v>
       </c>
       <c r="W14">
-        <v>0.03071895424836601</v>
+        <v>0.06563867472390082</v>
       </c>
       <c r="X14">
-        <v>0.09063452200961086</v>
+        <v>0.1156722842480364</v>
       </c>
       <c r="Y14">
-        <v>-0.05991556776124485</v>
+        <v>-0.05003360952413556</v>
       </c>
       <c r="Z14">
-        <v>1.114583333333333</v>
+        <v>0.5860196810315574</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.07516722296807882</v>
+        <v>0.07159974053695498</v>
       </c>
       <c r="AC14">
-        <v>-0.07516722296807882</v>
+        <v>-0.07159974053695498</v>
       </c>
       <c r="AD14">
-        <v>141.1</v>
+        <v>508</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>141.1</v>
+        <v>508</v>
       </c>
       <c r="AG14">
-        <v>-101.5</v>
+        <v>102</v>
       </c>
       <c r="AH14">
-        <v>0.5134643377001457</v>
+        <v>0.6435267291613884</v>
       </c>
       <c r="AI14">
-        <v>0.4230884557721139</v>
+        <v>0.4958032402888933</v>
       </c>
       <c r="AJ14">
-        <v>-3.152173913043479</v>
+        <v>0.2660406885758999</v>
       </c>
       <c r="AK14">
-        <v>-1.116611661166117</v>
+        <v>0.1648884578079534</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2186,7 +2165,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jordan Kuwait Bank (ASE:JOKB)</t>
+          <t>Capital Bank of Jordan (ASE:EXFB)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2195,10 +2174,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.0139</v>
+        <v>0.0301</v>
       </c>
       <c r="E15">
-        <v>-0.0668</v>
+        <v>-0.0144</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2207,34 +2186,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.01942761393412483</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-0.01373474271018498</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>49.7</v>
+        <v>31.8</v>
       </c>
       <c r="L15">
-        <v>0.3269736842105264</v>
+        <v>0.272027373823781</v>
       </c>
       <c r="M15">
-        <v>27.3</v>
+        <v>0.154</v>
       </c>
       <c r="N15">
-        <v>0.0770968652922903</v>
+        <v>0.0005571635311143271</v>
       </c>
       <c r="O15">
-        <v>0.5492957746478873</v>
+        <v>0.004842767295597484</v>
       </c>
       <c r="P15">
-        <v>27.3</v>
+        <v>0.154</v>
       </c>
       <c r="Q15">
-        <v>0.0770968652922903</v>
+        <v>0.0005571635311143271</v>
       </c>
       <c r="R15">
-        <v>0.5492957746478873</v>
+        <v>0.004842767295597484</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2243,67 +2222,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>575.9</v>
+        <v>416.8</v>
       </c>
       <c r="V15">
-        <v>1.626376729737362</v>
+        <v>1.507959479015919</v>
       </c>
       <c r="W15">
-        <v>0.08172997862193718</v>
+        <v>0.0782672901796702</v>
       </c>
       <c r="X15">
-        <v>0.0732175639078702</v>
+        <v>0.1169730136906125</v>
       </c>
       <c r="Y15">
-        <v>0.008512414714066982</v>
+        <v>-0.03870572351094227</v>
       </c>
       <c r="Z15">
-        <v>1.439871352330494</v>
+        <v>0.4593320235756384</v>
       </c>
       <c r="AA15">
-        <v>-0.01977626256002544</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.06902028708142513</v>
+        <v>0.07173646124776328</v>
       </c>
       <c r="AC15">
-        <v>-0.08879654964145058</v>
+        <v>-0.07173646124776328</v>
       </c>
       <c r="AD15">
-        <v>159.2</v>
+        <v>509.3</v>
       </c>
       <c r="AE15">
-        <v>15.46498658993487</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>174.6649865899349</v>
+        <v>509.3</v>
       </c>
       <c r="AG15">
-        <v>-401.2350134100651</v>
+        <v>92.5</v>
       </c>
       <c r="AH15">
-        <v>0.3303263094562465</v>
+        <v>0.6482117856688303</v>
       </c>
       <c r="AI15">
-        <v>0.215911676630416</v>
+        <v>0.4968780487804878</v>
       </c>
       <c r="AJ15">
-        <v>8.512462061257979</v>
+        <v>0.2507454594741123</v>
       </c>
       <c r="AK15">
-        <v>-1.721558520139348</v>
+        <v>0.1520881289049655</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>1137.142857142857</v>
-      </c>
-      <c r="AP15">
-        <v>-2865.964381500465</v>
       </c>
     </row>
   </sheetData>
